--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_filo01\sciebo\Tools\Mason\sim\app\geo\pedestrianSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3344DEF2-0616-47B1-AEB6-3D345A29D710}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130DD85A-5DB8-46EB-9932-9DB9CDAA52BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABA4EB13-BAF8-49F2-A369-185995B78939}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>EUCLIDEAN</t>
   </si>
@@ -103,6 +104,24 @@
   </si>
   <si>
     <t>localScore*0.40 + globalScore*0.40 + gain*0.20;</t>
+  </si>
+  <si>
+    <t>nothing relevant</t>
+  </si>
+  <si>
+    <t>Number of landmarks are crossed</t>
+  </si>
+  <si>
+    <t>Score of landmark along the routes</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>long routes still, only few landmarks were used..patterns not particularly different</t>
+  </si>
+  <si>
+    <t>0.80*0.20; no advance visibility</t>
   </si>
 </sst>
 </file>
@@ -454,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2E55EE-F823-47F6-915F-71CF3DDD58CD}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,13 +627,63 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA90DB49-34EB-46D9-8398-21171423E9EC}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_filo01\sciebo\Tools\Mason\sim\app\geo\pedestrianSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130DD85A-5DB8-46EB-9932-9DB9CDAA52BC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AF876D-DAB8-494B-8548-E5E61D336BC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABA4EB13-BAF8-49F2-A369-185995B78939}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
   <si>
     <t>EUCLIDEAN</t>
   </si>
@@ -40,18 +40,6 @@
     <t>ANGULAR</t>
   </si>
   <si>
-    <t>LOCAL LANDMARKNESS</t>
-  </si>
-  <si>
-    <t>GLOBAL LANDMARKNESS</t>
-  </si>
-  <si>
-    <t>MAX--&gt; anchors</t>
-  </si>
-  <si>
-    <t>MAX--&gt; every GL</t>
-  </si>
-  <si>
     <t>GAIN</t>
   </si>
   <si>
@@ -61,12 +49,6 @@
     <t>SOME DIFFERENCES</t>
   </si>
   <si>
-    <t>RIVER</t>
-  </si>
-  <si>
-    <t>LITTLE</t>
-  </si>
-  <si>
     <t>ENABLED</t>
   </si>
   <si>
@@ -82,18 +64,6 @@
     <t>SUM</t>
   </si>
   <si>
-    <t>MEAN --&gt; every GL</t>
-  </si>
-  <si>
-    <t>too longe routes (1km more), no interesting pattern</t>
-  </si>
-  <si>
-    <t>very few differences - BAD</t>
-  </si>
-  <si>
-    <t>BAD</t>
-  </si>
-  <si>
     <t>localScore*0.75 + gain*0.25</t>
   </si>
   <si>
@@ -106,9 +76,6 @@
     <t>localScore*0.40 + globalScore*0.40 + gain*0.20;</t>
   </si>
   <si>
-    <t>nothing relevant</t>
-  </si>
-  <si>
     <t>Number of landmarks are crossed</t>
   </si>
   <si>
@@ -118,18 +85,101 @@
     <t>Validation</t>
   </si>
   <si>
-    <t>long routes still, only few landmarks were used..patterns not particularly different</t>
-  </si>
-  <si>
-    <t>0.80*0.20; no advance visibility</t>
+    <t xml:space="preserve">LL </t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>ONLY ANCHORS</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>IN ROUTING  *(0.40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80*0.20; </t>
+  </si>
+  <si>
+    <t>NO 2D VIS</t>
+  </si>
+  <si>
+    <t>2D VIS</t>
+  </si>
+  <si>
+    <t>IN ROUTING  *(0.60)</t>
+  </si>
+  <si>
+    <t>FEW DIFFERENCES in ANGULAR CHNGE, SOMETHING WEIRD AROUND A BRIDGE</t>
+  </si>
+  <si>
+    <t>ROUTES ARE TOO LONG AND IN ANY CASE DON'T LEAD TO INTERESTING PATTERNS</t>
+  </si>
+  <si>
+    <t>VERY FEW DIFFERENCES</t>
+  </si>
+  <si>
+    <t>ROUTES TILL TOO LONG</t>
+  </si>
+  <si>
+    <t>TOO LITTLE DIFFERENCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERY FEW DIFFERENCES </t>
+  </si>
+  <si>
+    <t>ROUTES ARE TOO LONG</t>
+  </si>
+  <si>
+    <t>0.70 + 0.30</t>
+  </si>
+  <si>
+    <t>0.60 + 0.40</t>
+  </si>
+  <si>
+    <t>0.50 + 0.50</t>
+  </si>
+  <si>
+    <t>IN ROUTING  *1</t>
+  </si>
+  <si>
+    <t>IN ROUTING  *0.7</t>
+  </si>
+  <si>
+    <t>WORKS QUITE WELL</t>
+  </si>
+  <si>
+    <t>NO BRIDGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -157,8 +207,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,188 +524,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2E55EE-F823-47F6-915F-71CF3DDD58CD}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -666,24 +884,24 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
